--- a/db/chatbot.xlsx
+++ b/db/chatbot.xlsx
@@ -4,11 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14720" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14600" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1 (2)" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="73">
   <si>
     <t>見たいものが決まっている？</t>
     <rPh sb="0" eb="1">
@@ -271,27 +273,106 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Question1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ans1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Question1-2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ans</t>
-    <phoneticPr fontId="1"/>
+    <t>誰と見る？</t>
+  </si>
+  <si>
+    <t>どれが好き</t>
+  </si>
+  <si>
+    <t>君の名は</t>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>label</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>next_type</t>
+  </si>
+  <si>
+    <t>parent_id</t>
+  </si>
+  <si>
+    <t>to_web</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>見たいものが決まっている？</t>
+  </si>
+  <si>
+    <t>YES</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>question</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>message</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>これです</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>呪怨</t>
+  </si>
+  <si>
+    <t>ハンニバル</t>
+  </si>
+  <si>
+    <t>message</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>これです</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヤマト</t>
+  </si>
+  <si>
+    <t>question</t>
+  </si>
+  <si>
+    <t>question</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>to_web</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>message</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>これです</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -325,6 +406,14 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -343,7 +432,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="103">
+  <cellStyleXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -447,8 +536,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -456,8 +557,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="103">
+  <cellStyles count="115">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
@@ -509,6 +611,12 @@
     <cellStyle name="ハイパーリンク" xfId="97" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="99" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="113" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -561,6 +669,12 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="98" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="100" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="114" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -892,13 +1006,13 @@
   <dimension ref="A1:S75"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" customWidth="1"/>
+    <col min="7" max="7" width="17.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="24.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.5" customWidth="1"/>
     <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
@@ -953,7 +1067,7 @@
         <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="G3" t="s">
         <v>7</v>
@@ -2008,8 +2122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -2021,20 +2135,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" t="s">
-        <v>46</v>
-      </c>
       <c r="C1" t="s">
         <v>24</v>
-      </c>
-      <c r="D1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E1" t="s">
-        <v>48</v>
       </c>
       <c r="F1" t="s">
         <v>24</v>
@@ -2104,6 +2206,345 @@
         <v>44</v>
       </c>
       <c r="G6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="25.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="3">
+        <v>3</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="3">
+        <v>4</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="3">
+        <v>4</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="3">
+        <v>4</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="3">
+        <v>4</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="25.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="B3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10" t="s">
         <v>31</v>
       </c>
     </row>

--- a/db/chatbot.xlsx
+++ b/db/chatbot.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14600" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14580" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1 (2)" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="79">
   <si>
     <t>見たいものが決まっている？</t>
     <rPh sb="0" eb="1">
@@ -242,10 +242,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>キュンキュンしたい？</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ドキドキしたい？</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -303,7 +299,44 @@
     <t>見たいものが決まっている？</t>
   </si>
   <si>
+    <t>呪怨</t>
+  </si>
+  <si>
+    <t>ハンニバル</t>
+  </si>
+  <si>
+    <t>ヤマト</t>
+  </si>
+  <si>
+    <t>question</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>to_web</t>
+  </si>
+  <si>
     <t>YES</t>
+  </si>
+  <si>
+    <t>message</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>これです</t>
+  </si>
+  <si>
+    <t>YES</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NO</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -311,61 +344,45 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>NO</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>message</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>これです</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>呪怨</t>
-  </si>
-  <si>
-    <t>ハンニバル</t>
+    <t>1人</t>
+  </si>
+  <si>
+    <t>question</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>どれが好き(2)</t>
+  </si>
+  <si>
+    <t>ラストサムライ</t>
+  </si>
+  <si>
+    <t>どれが好き(3)</t>
+  </si>
+  <si>
+    <t>猟奇的な彼女</t>
   </si>
   <si>
     <t>message</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>これです</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ヤマト</t>
-  </si>
-  <si>
     <t>question</t>
-  </si>
-  <si>
-    <t>question</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>label</t>
-  </si>
-  <si>
-    <t>to_web</t>
-  </si>
-  <si>
-    <t>YES</t>
-  </si>
-  <si>
-    <t>message</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>これです</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>子供</t>
+  </si>
+  <si>
+    <t>キュンキュンしたい？</t>
+  </si>
+  <si>
+    <t>キュンキュンしたい？</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -415,12 +432,36 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -432,7 +473,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="115">
+  <cellStyleXfs count="159">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -548,8 +589,52 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -558,8 +643,12 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="115">
+  <cellStyles count="159">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
@@ -617,6 +706,28 @@
     <cellStyle name="ハイパーリンク" xfId="109" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="111" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="157" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -675,6 +786,28 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="110" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="112" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="158" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1005,8 +1138,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S75"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView topLeftCell="F48" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="S74" sqref="S74:S75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -1044,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="C2" t="s">
         <v>25</v>
@@ -1055,7 +1188,7 @@
     </row>
     <row r="3" spans="1:19">
       <c r="B3" t="s">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="C3" t="s">
         <v>26</v>
@@ -1067,7 +1200,7 @@
         <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G3" t="s">
         <v>7</v>
@@ -1076,7 +1209,7 @@
         <v>8</v>
       </c>
       <c r="I3" t="s">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="J3" t="s">
         <v>29</v>
@@ -1085,7 +1218,7 @@
         <v>10</v>
       </c>
       <c r="L3" t="s">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="M3" t="s">
         <v>28</v>
@@ -2043,7 +2176,7 @@
         <v>27</v>
       </c>
       <c r="J72" t="s">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="K72" s="1" t="s">
         <v>21</v>
@@ -2061,16 +2194,16 @@
         <v>22</v>
       </c>
       <c r="L73" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M73" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N73" t="s">
         <v>21</v>
       </c>
       <c r="O73" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S73" t="s">
         <v>31</v>
@@ -2084,13 +2217,13 @@
         <v>27</v>
       </c>
       <c r="P74" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q74" t="s">
         <v>21</v>
       </c>
       <c r="R74" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S74" t="s">
         <v>31</v>
@@ -2101,15 +2234,16 @@
         <v>23</v>
       </c>
       <c r="R75" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S75" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2170,7 +2304,7 @@
         <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G3" t="s">
         <v>31</v>
@@ -2181,7 +2315,7 @@
         <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G4" t="s">
         <v>31</v>
@@ -2192,7 +2326,7 @@
         <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G5" t="s">
         <v>31</v>
@@ -2203,7 +2337,7 @@
         <v>33</v>
       </c>
       <c r="F6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G6" t="s">
         <v>31</v>
@@ -2224,8 +2358,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -2235,19 +2369,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>51</v>
-      </c>
       <c r="E1" s="3" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2255,14 +2389,12 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D2" s="3">
-        <v>0</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5">
@@ -2270,10 +2402,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D3" s="3">
         <v>1</v>
@@ -2285,10 +2417,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="D4" s="3">
         <v>1</v>
@@ -2300,10 +2432,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D5" s="3">
         <v>3</v>
@@ -2315,16 +2447,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="D6" s="3">
         <v>4</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2332,16 +2464,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="D7" s="3">
         <v>4</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2349,16 +2481,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="D8" s="3">
         <v>4</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2366,16 +2498,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="D9" s="3">
         <v>4</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -2391,10 +2523,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -2404,19 +2536,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" t="s">
         <v>48</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>49</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>50</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>51</v>
-      </c>
-      <c r="E1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2424,29 +2556,35 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:5">
+      <c r="A3">
+        <v>2</v>
+      </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>67</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -2454,103 +2592,916 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5">
         <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6">
         <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D6">
-        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7">
         <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D7">
-        <v>4</v>
-      </c>
-      <c r="E7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8">
         <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8">
-        <v>4</v>
-      </c>
-      <c r="E8" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9">
         <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D9">
-        <v>4</v>
-      </c>
-      <c r="E9" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14">
+        <v>10</v>
+      </c>
+      <c r="E14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15">
+        <v>10</v>
+      </c>
+      <c r="E15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18">
+        <v>16</v>
+      </c>
+      <c r="E18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19">
+        <v>16</v>
+      </c>
+      <c r="E19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20">
+        <v>16</v>
+      </c>
+      <c r="E20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21">
+        <v>16</v>
+      </c>
+      <c r="E21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24">
+        <v>22</v>
+      </c>
+      <c r="E24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25">
+        <v>22</v>
+      </c>
+      <c r="E25" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26">
+        <v>22</v>
+      </c>
+      <c r="E26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27">
+        <v>22</v>
+      </c>
+      <c r="E27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" t="s">
+        <v>75</v>
+      </c>
+      <c r="D28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" t="s">
+        <v>69</v>
+      </c>
+      <c r="D29">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D31">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>73</v>
+      </c>
+      <c r="C32" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32">
+        <v>30</v>
+      </c>
+      <c r="E32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" t="s">
+        <v>61</v>
+      </c>
+      <c r="D33">
+        <v>30</v>
+      </c>
+      <c r="E33" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" t="s">
+        <v>61</v>
+      </c>
+      <c r="D34">
+        <v>30</v>
+      </c>
+      <c r="E34" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" t="s">
+        <v>61</v>
+      </c>
+      <c r="D35">
+        <v>30</v>
+      </c>
+      <c r="E35" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>53</v>
+      </c>
+      <c r="C36" t="s">
+        <v>66</v>
+      </c>
+      <c r="D36">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D37">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>73</v>
+      </c>
+      <c r="C38" t="s">
+        <v>61</v>
+      </c>
+      <c r="D38">
+        <v>36</v>
+      </c>
+      <c r="E38" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" t="s">
+        <v>61</v>
+      </c>
+      <c r="D39">
+        <v>36</v>
+      </c>
+      <c r="E39" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" t="s">
+        <v>61</v>
+      </c>
+      <c r="D40">
+        <v>36</v>
+      </c>
+      <c r="E40" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41" t="s">
+        <v>61</v>
+      </c>
+      <c r="D41">
+        <v>36</v>
+      </c>
+      <c r="E41" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>32</v>
+      </c>
+      <c r="C42" t="s">
+        <v>56</v>
+      </c>
+      <c r="D42">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D43">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>73</v>
+      </c>
+      <c r="C44" t="s">
+        <v>61</v>
+      </c>
+      <c r="D44">
+        <v>42</v>
+      </c>
+      <c r="E44" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>14</v>
+      </c>
+      <c r="C45" t="s">
+        <v>61</v>
+      </c>
+      <c r="D45">
+        <v>42</v>
+      </c>
+      <c r="E45" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46" t="s">
+        <v>61</v>
+      </c>
+      <c r="D46">
+        <v>42</v>
+      </c>
+      <c r="E46" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>13</v>
+      </c>
+      <c r="C47" t="s">
+        <v>61</v>
+      </c>
+      <c r="D47">
+        <v>42</v>
+      </c>
+      <c r="E47" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>76</v>
+      </c>
+      <c r="C48" t="s">
+        <v>56</v>
+      </c>
+      <c r="D48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>16</v>
+      </c>
+      <c r="C49" t="s">
+        <v>25</v>
+      </c>
+      <c r="D49">
+        <v>47</v>
+      </c>
+      <c r="E49" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>18</v>
+      </c>
+      <c r="C50" t="s">
+        <v>25</v>
+      </c>
+      <c r="D50">
+        <v>47</v>
+      </c>
+      <c r="E50" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>19</v>
+      </c>
+      <c r="C51" t="s">
+        <v>25</v>
+      </c>
+      <c r="D51">
+        <v>47</v>
+      </c>
+      <c r="E51" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>17</v>
+      </c>
+      <c r="C52" t="s">
+        <v>25</v>
+      </c>
+      <c r="D52">
+        <v>47</v>
+      </c>
+      <c r="E52" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>20</v>
+      </c>
+      <c r="C53" t="s">
+        <v>56</v>
+      </c>
+      <c r="D53">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>35</v>
+      </c>
+      <c r="D54">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>25</v>
+      </c>
+      <c r="D55">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>2</v>
+      </c>
+      <c r="C56" t="s">
+        <v>26</v>
+      </c>
+      <c r="D56">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>77</v>
+      </c>
+      <c r="D57">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D58">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C59" t="s">
+        <v>39</v>
+      </c>
+      <c r="D59">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>77</v>
+      </c>
+      <c r="D60">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D61">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C62" t="s">
+        <v>39</v>
+      </c>
+      <c r="D62">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>41</v>
+      </c>
+      <c r="D63">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64">
         <v>63</v>
       </c>
-      <c r="C10" t="s">
+      <c r="B64" t="s">
+        <v>1</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D10">
-        <v>4</v>
-      </c>
-      <c r="E10" t="s">
-        <v>31</v>
+      <c r="D64">
+        <v>62</v>
+      </c>
+      <c r="E64" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>2</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D65">
+        <v>62</v>
+      </c>
+      <c r="E65" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/db/chatbot.xlsx
+++ b/db/chatbot.xlsx
@@ -4,13 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14580" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14620" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1 (2)" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="_Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -22,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="59">
   <si>
     <t>見たいものが決まっている？</t>
     <rPh sb="0" eb="1">
@@ -46,30 +45,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>誰と見る？</t>
-    <rPh sb="0" eb="1">
-      <t>ダレ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ミ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1人</t>
-    <rPh sb="1" eb="2">
-      <t>ニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>子供</t>
-    <rPh sb="0" eb="2">
-      <t>コドモ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>どれが好き</t>
     <rPh sb="3" eb="4">
       <t>ス</t>
@@ -94,23 +69,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ラストサムライ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>呪怨</t>
     <rPh sb="0" eb="2">
       <t>ジュオン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>猟奇的な彼女</t>
-    <rPh sb="0" eb="3">
-      <t>リョウキテキ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>カノジョ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -165,18 +126,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>YES</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>NO</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>NO</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>next_type</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -189,28 +138,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>question</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>どれが好き(3)</t>
-    <rPh sb="3" eb="4">
-      <t>ス</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>どれが好き(2)</t>
-    <rPh sb="3" eb="4">
-      <t>ス</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>message</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>これです</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -220,10 +147,6 @@
   </si>
   <si>
     <t>ヤマト</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>にも</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -234,23 +157,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>YES</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>NO</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ドキドキしたい？</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>qusestion</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>message</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -332,14 +239,6 @@
     <t>これです</t>
   </si>
   <si>
-    <t>YES</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>NO</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>question</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -379,10 +278,6 @@
   </si>
   <si>
     <t>キュンキュンしたい？</t>
-  </si>
-  <si>
-    <t>キュンキュンしたい？</t>
-    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -634,13 +529,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1136,1124 +1028,6 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S75"/>
-  <sheetViews>
-    <sheetView topLeftCell="F48" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="S74" sqref="S74:S75"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5" customWidth="1"/>
-    <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="17.83203125" customWidth="1"/>
-    <col min="14" max="14" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19">
-      <c r="C1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
-      </c>
-      <c r="S2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19">
-      <c r="B3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" t="s">
-        <v>69</v>
-      </c>
-      <c r="G3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" t="s">
-        <v>69</v>
-      </c>
-      <c r="J3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" t="s">
-        <v>69</v>
-      </c>
-      <c r="M3" t="s">
-        <v>28</v>
-      </c>
-      <c r="N3" t="s">
-        <v>12</v>
-      </c>
-      <c r="O3" t="s">
-        <v>30</v>
-      </c>
-      <c r="S3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19">
-      <c r="N4" t="s">
-        <v>14</v>
-      </c>
-      <c r="O4" t="s">
-        <v>30</v>
-      </c>
-      <c r="S4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19">
-      <c r="N5" t="s">
-        <v>15</v>
-      </c>
-      <c r="O5" t="s">
-        <v>30</v>
-      </c>
-      <c r="S5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19">
-      <c r="N6" t="s">
-        <v>13</v>
-      </c>
-      <c r="O6" t="s">
-        <v>30</v>
-      </c>
-      <c r="S6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19">
-      <c r="K7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L7" t="s">
-        <v>27</v>
-      </c>
-      <c r="M7" t="s">
-        <v>28</v>
-      </c>
-      <c r="N7" t="s">
-        <v>12</v>
-      </c>
-      <c r="O7" t="s">
-        <v>30</v>
-      </c>
-      <c r="S7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19">
-      <c r="N8" t="s">
-        <v>14</v>
-      </c>
-      <c r="O8" t="s">
-        <v>30</v>
-      </c>
-      <c r="S8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19">
-      <c r="N9" t="s">
-        <v>15</v>
-      </c>
-      <c r="O9" t="s">
-        <v>30</v>
-      </c>
-      <c r="S9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19">
-      <c r="N10" t="s">
-        <v>13</v>
-      </c>
-      <c r="O10" t="s">
-        <v>30</v>
-      </c>
-      <c r="S10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19">
-      <c r="K11" t="s">
-        <v>32</v>
-      </c>
-      <c r="L11" t="s">
-        <v>27</v>
-      </c>
-      <c r="M11" t="s">
-        <v>28</v>
-      </c>
-      <c r="N11" t="s">
-        <v>12</v>
-      </c>
-      <c r="O11" t="s">
-        <v>30</v>
-      </c>
-      <c r="S11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19">
-      <c r="N12" t="s">
-        <v>14</v>
-      </c>
-      <c r="O12" t="s">
-        <v>30</v>
-      </c>
-      <c r="S12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19">
-      <c r="G13" s="2"/>
-      <c r="N13" t="s">
-        <v>15</v>
-      </c>
-      <c r="O13" t="s">
-        <v>30</v>
-      </c>
-      <c r="S13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19">
-      <c r="N14" t="s">
-        <v>13</v>
-      </c>
-      <c r="O14" t="s">
-        <v>30</v>
-      </c>
-      <c r="S14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19">
-      <c r="K15" t="s">
-        <v>33</v>
-      </c>
-      <c r="L15" t="s">
-        <v>27</v>
-      </c>
-      <c r="M15" t="s">
-        <v>28</v>
-      </c>
-      <c r="N15" t="s">
-        <v>12</v>
-      </c>
-      <c r="O15" t="s">
-        <v>30</v>
-      </c>
-      <c r="S15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19">
-      <c r="N16" t="s">
-        <v>14</v>
-      </c>
-      <c r="O16" t="s">
-        <v>30</v>
-      </c>
-      <c r="S16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="8:19">
-      <c r="N17" t="s">
-        <v>15</v>
-      </c>
-      <c r="O17" t="s">
-        <v>30</v>
-      </c>
-      <c r="S17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="8:19">
-      <c r="N18" t="s">
-        <v>13</v>
-      </c>
-      <c r="O18" t="s">
-        <v>30</v>
-      </c>
-      <c r="S18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="8:19">
-      <c r="H19" t="s">
-        <v>9</v>
-      </c>
-      <c r="I19" t="s">
-        <v>27</v>
-      </c>
-      <c r="J19" t="s">
-        <v>29</v>
-      </c>
-      <c r="K19" t="s">
-        <v>10</v>
-      </c>
-      <c r="L19" t="s">
-        <v>27</v>
-      </c>
-      <c r="M19" t="s">
-        <v>28</v>
-      </c>
-      <c r="N19" t="s">
-        <v>12</v>
-      </c>
-      <c r="O19" t="s">
-        <v>30</v>
-      </c>
-      <c r="S19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="8:19">
-      <c r="N20" t="s">
-        <v>14</v>
-      </c>
-      <c r="O20" t="s">
-        <v>30</v>
-      </c>
-      <c r="S20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="8:19">
-      <c r="N21" t="s">
-        <v>15</v>
-      </c>
-      <c r="O21" t="s">
-        <v>30</v>
-      </c>
-      <c r="S21" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="8:19">
-      <c r="N22" t="s">
-        <v>13</v>
-      </c>
-      <c r="O22" t="s">
-        <v>30</v>
-      </c>
-      <c r="S22" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="8:19">
-      <c r="K23" t="s">
-        <v>11</v>
-      </c>
-      <c r="L23" t="s">
-        <v>27</v>
-      </c>
-      <c r="M23" t="s">
-        <v>28</v>
-      </c>
-      <c r="N23" t="s">
-        <v>12</v>
-      </c>
-      <c r="O23" t="s">
-        <v>30</v>
-      </c>
-      <c r="S23" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="8:19">
-      <c r="N24" t="s">
-        <v>14</v>
-      </c>
-      <c r="O24" t="s">
-        <v>30</v>
-      </c>
-      <c r="S24" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="8:19">
-      <c r="N25" t="s">
-        <v>15</v>
-      </c>
-      <c r="O25" t="s">
-        <v>30</v>
-      </c>
-      <c r="S25" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26" spans="8:19">
-      <c r="N26" t="s">
-        <v>13</v>
-      </c>
-      <c r="O26" t="s">
-        <v>30</v>
-      </c>
-      <c r="S26" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="8:19">
-      <c r="K27" t="s">
-        <v>32</v>
-      </c>
-      <c r="L27" t="s">
-        <v>27</v>
-      </c>
-      <c r="M27" t="s">
-        <v>28</v>
-      </c>
-      <c r="N27" t="s">
-        <v>12</v>
-      </c>
-      <c r="O27" t="s">
-        <v>30</v>
-      </c>
-      <c r="S27" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="28" spans="8:19">
-      <c r="N28" t="s">
-        <v>14</v>
-      </c>
-      <c r="O28" t="s">
-        <v>30</v>
-      </c>
-      <c r="S28" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="29" spans="8:19">
-      <c r="N29" t="s">
-        <v>15</v>
-      </c>
-      <c r="O29" t="s">
-        <v>30</v>
-      </c>
-      <c r="S29" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="30" spans="8:19">
-      <c r="N30" t="s">
-        <v>13</v>
-      </c>
-      <c r="O30" t="s">
-        <v>30</v>
-      </c>
-      <c r="S30" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="31" spans="8:19">
-      <c r="K31" t="s">
-        <v>33</v>
-      </c>
-      <c r="L31" t="s">
-        <v>27</v>
-      </c>
-      <c r="M31" t="s">
-        <v>28</v>
-      </c>
-      <c r="N31" t="s">
-        <v>12</v>
-      </c>
-      <c r="O31" t="s">
-        <v>30</v>
-      </c>
-      <c r="S31" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="8:19">
-      <c r="N32" t="s">
-        <v>14</v>
-      </c>
-      <c r="O32" t="s">
-        <v>30</v>
-      </c>
-      <c r="S32" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="8:19">
-      <c r="N33" t="s">
-        <v>15</v>
-      </c>
-      <c r="O33" t="s">
-        <v>30</v>
-      </c>
-      <c r="S33" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="8:19">
-      <c r="N34" t="s">
-        <v>13</v>
-      </c>
-      <c r="O34" t="s">
-        <v>30</v>
-      </c>
-      <c r="S34" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="35" spans="8:19">
-      <c r="H35" t="s">
-        <v>34</v>
-      </c>
-      <c r="I35" t="s">
-        <v>27</v>
-      </c>
-      <c r="J35" t="s">
-        <v>29</v>
-      </c>
-      <c r="K35" t="s">
-        <v>10</v>
-      </c>
-      <c r="L35" t="s">
-        <v>27</v>
-      </c>
-      <c r="M35" t="s">
-        <v>28</v>
-      </c>
-      <c r="N35" t="s">
-        <v>12</v>
-      </c>
-      <c r="O35" t="s">
-        <v>30</v>
-      </c>
-      <c r="S35" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="36" spans="8:19">
-      <c r="N36" t="s">
-        <v>14</v>
-      </c>
-      <c r="O36" t="s">
-        <v>30</v>
-      </c>
-      <c r="S36" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="37" spans="8:19">
-      <c r="N37" t="s">
-        <v>15</v>
-      </c>
-      <c r="O37" t="s">
-        <v>30</v>
-      </c>
-      <c r="S37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="38" spans="8:19">
-      <c r="N38" t="s">
-        <v>13</v>
-      </c>
-      <c r="O38" t="s">
-        <v>30</v>
-      </c>
-      <c r="S38" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="39" spans="8:19">
-      <c r="K39" t="s">
-        <v>11</v>
-      </c>
-      <c r="L39" t="s">
-        <v>27</v>
-      </c>
-      <c r="M39" t="s">
-        <v>28</v>
-      </c>
-      <c r="N39" t="s">
-        <v>12</v>
-      </c>
-      <c r="O39" t="s">
-        <v>30</v>
-      </c>
-      <c r="S39" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="40" spans="8:19">
-      <c r="N40" t="s">
-        <v>14</v>
-      </c>
-      <c r="O40" t="s">
-        <v>30</v>
-      </c>
-      <c r="S40" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="41" spans="8:19">
-      <c r="N41" t="s">
-        <v>15</v>
-      </c>
-      <c r="O41" t="s">
-        <v>30</v>
-      </c>
-      <c r="S41" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="42" spans="8:19">
-      <c r="N42" t="s">
-        <v>13</v>
-      </c>
-      <c r="O42" t="s">
-        <v>30</v>
-      </c>
-      <c r="S42" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="43" spans="8:19">
-      <c r="K43" t="s">
-        <v>32</v>
-      </c>
-      <c r="L43" t="s">
-        <v>27</v>
-      </c>
-      <c r="M43" t="s">
-        <v>28</v>
-      </c>
-      <c r="N43" t="s">
-        <v>12</v>
-      </c>
-      <c r="O43" t="s">
-        <v>30</v>
-      </c>
-      <c r="S43" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="44" spans="8:19">
-      <c r="N44" t="s">
-        <v>14</v>
-      </c>
-      <c r="O44" t="s">
-        <v>30</v>
-      </c>
-      <c r="S44" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="45" spans="8:19">
-      <c r="N45" t="s">
-        <v>15</v>
-      </c>
-      <c r="O45" t="s">
-        <v>30</v>
-      </c>
-      <c r="S45" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="46" spans="8:19">
-      <c r="N46" t="s">
-        <v>13</v>
-      </c>
-      <c r="O46" t="s">
-        <v>30</v>
-      </c>
-      <c r="S46" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="47" spans="8:19">
-      <c r="K47" t="s">
-        <v>33</v>
-      </c>
-      <c r="L47" t="s">
-        <v>27</v>
-      </c>
-      <c r="M47" t="s">
-        <v>28</v>
-      </c>
-      <c r="N47" t="s">
-        <v>12</v>
-      </c>
-      <c r="O47" t="s">
-        <v>30</v>
-      </c>
-      <c r="S47" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="48" spans="8:19">
-      <c r="N48" t="s">
-        <v>14</v>
-      </c>
-      <c r="O48" t="s">
-        <v>30</v>
-      </c>
-      <c r="S48" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="49" spans="8:19">
-      <c r="N49" t="s">
-        <v>15</v>
-      </c>
-      <c r="O49" t="s">
-        <v>30</v>
-      </c>
-      <c r="S49" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="50" spans="8:19">
-      <c r="N50" t="s">
-        <v>13</v>
-      </c>
-      <c r="O50" t="s">
-        <v>30</v>
-      </c>
-      <c r="S50" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="51" spans="8:19">
-      <c r="H51" t="s">
-        <v>34</v>
-      </c>
-      <c r="I51" t="s">
-        <v>27</v>
-      </c>
-      <c r="J51" t="s">
-        <v>29</v>
-      </c>
-      <c r="K51" t="s">
-        <v>10</v>
-      </c>
-      <c r="L51" t="s">
-        <v>27</v>
-      </c>
-      <c r="M51" t="s">
-        <v>28</v>
-      </c>
-      <c r="N51" t="s">
-        <v>12</v>
-      </c>
-      <c r="O51" t="s">
-        <v>30</v>
-      </c>
-      <c r="S51" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="52" spans="8:19">
-      <c r="N52" t="s">
-        <v>14</v>
-      </c>
-      <c r="O52" t="s">
-        <v>30</v>
-      </c>
-      <c r="S52" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="53" spans="8:19">
-      <c r="N53" t="s">
-        <v>15</v>
-      </c>
-      <c r="O53" t="s">
-        <v>30</v>
-      </c>
-      <c r="S53" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="54" spans="8:19">
-      <c r="N54" t="s">
-        <v>13</v>
-      </c>
-      <c r="O54" t="s">
-        <v>30</v>
-      </c>
-      <c r="S54" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="55" spans="8:19">
-      <c r="K55" t="s">
-        <v>11</v>
-      </c>
-      <c r="L55" t="s">
-        <v>27</v>
-      </c>
-      <c r="M55" t="s">
-        <v>28</v>
-      </c>
-      <c r="N55" t="s">
-        <v>12</v>
-      </c>
-      <c r="O55" t="s">
-        <v>30</v>
-      </c>
-      <c r="S55" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="56" spans="8:19">
-      <c r="N56" t="s">
-        <v>14</v>
-      </c>
-      <c r="O56" t="s">
-        <v>30</v>
-      </c>
-      <c r="S56" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="57" spans="8:19">
-      <c r="N57" t="s">
-        <v>15</v>
-      </c>
-      <c r="O57" t="s">
-        <v>30</v>
-      </c>
-      <c r="S57" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="58" spans="8:19">
-      <c r="N58" t="s">
-        <v>13</v>
-      </c>
-      <c r="O58" t="s">
-        <v>30</v>
-      </c>
-      <c r="S58" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="59" spans="8:19">
-      <c r="K59" t="s">
-        <v>32</v>
-      </c>
-      <c r="L59" t="s">
-        <v>27</v>
-      </c>
-      <c r="M59" t="s">
-        <v>28</v>
-      </c>
-      <c r="N59" t="s">
-        <v>12</v>
-      </c>
-      <c r="O59" t="s">
-        <v>30</v>
-      </c>
-      <c r="S59" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="60" spans="8:19">
-      <c r="N60" t="s">
-        <v>14</v>
-      </c>
-      <c r="O60" t="s">
-        <v>30</v>
-      </c>
-      <c r="S60" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="61" spans="8:19">
-      <c r="N61" t="s">
-        <v>15</v>
-      </c>
-      <c r="O61" t="s">
-        <v>30</v>
-      </c>
-      <c r="S61" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="62" spans="8:19">
-      <c r="N62" t="s">
-        <v>13</v>
-      </c>
-      <c r="O62" t="s">
-        <v>30</v>
-      </c>
-      <c r="S62" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="63" spans="8:19">
-      <c r="K63" t="s">
-        <v>33</v>
-      </c>
-      <c r="L63" t="s">
-        <v>27</v>
-      </c>
-      <c r="M63" t="s">
-        <v>28</v>
-      </c>
-      <c r="N63" t="s">
-        <v>12</v>
-      </c>
-      <c r="O63" t="s">
-        <v>30</v>
-      </c>
-      <c r="S63" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="64" spans="8:19">
-      <c r="N64" t="s">
-        <v>14</v>
-      </c>
-      <c r="O64" t="s">
-        <v>30</v>
-      </c>
-      <c r="S64" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="65" spans="5:19">
-      <c r="N65" t="s">
-        <v>15</v>
-      </c>
-      <c r="O65" t="s">
-        <v>30</v>
-      </c>
-      <c r="S65" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="66" spans="5:19">
-      <c r="N66" t="s">
-        <v>13</v>
-      </c>
-      <c r="O66" t="s">
-        <v>30</v>
-      </c>
-      <c r="S66" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="67" spans="5:19">
-      <c r="E67" t="s">
-        <v>6</v>
-      </c>
-      <c r="F67" t="s">
-        <v>26</v>
-      </c>
-      <c r="H67" t="s">
-        <v>16</v>
-      </c>
-      <c r="I67" t="s">
-        <v>30</v>
-      </c>
-      <c r="S67" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="68" spans="5:19">
-      <c r="H68" t="s">
-        <v>18</v>
-      </c>
-      <c r="I68" t="s">
-        <v>30</v>
-      </c>
-      <c r="S68" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="69" spans="5:19" ht="18" customHeight="1">
-      <c r="H69" t="s">
-        <v>19</v>
-      </c>
-      <c r="I69" t="s">
-        <v>30</v>
-      </c>
-      <c r="K69" s="1"/>
-      <c r="L69" s="1"/>
-      <c r="M69" s="1"/>
-      <c r="S69" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="70" spans="5:19">
-      <c r="H70" t="s">
-        <v>17</v>
-      </c>
-      <c r="I70" t="s">
-        <v>30</v>
-      </c>
-      <c r="K70" s="1"/>
-      <c r="L70" s="1"/>
-      <c r="M70" s="1"/>
-      <c r="S70" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="71" spans="5:19">
-      <c r="E71" t="s">
-        <v>20</v>
-      </c>
-      <c r="F71" t="s">
-        <v>26</v>
-      </c>
-      <c r="G71" t="s">
-        <v>35</v>
-      </c>
-      <c r="H71" t="s">
-        <v>36</v>
-      </c>
-      <c r="I71" t="s">
-        <v>30</v>
-      </c>
-      <c r="K71" s="1"/>
-      <c r="L71" s="1"/>
-      <c r="M71" s="1"/>
-      <c r="S71" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="72" spans="5:19">
-      <c r="H72" t="s">
-        <v>37</v>
-      </c>
-      <c r="I72" t="s">
-        <v>27</v>
-      </c>
-      <c r="J72" t="s">
-        <v>78</v>
-      </c>
-      <c r="K72" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L72" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M72" s="1"/>
-      <c r="S72" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="73" spans="5:19">
-      <c r="K73" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L73" t="s">
-        <v>39</v>
-      </c>
-      <c r="M73" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="N73" t="s">
-        <v>21</v>
-      </c>
-      <c r="O73" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S73" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="74" spans="5:19">
-      <c r="N74" t="s">
-        <v>22</v>
-      </c>
-      <c r="O74" t="s">
-        <v>27</v>
-      </c>
-      <c r="P74" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q74" t="s">
-        <v>21</v>
-      </c>
-      <c r="R74" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S74" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="75" spans="5:19">
-      <c r="Q75" t="s">
-        <v>23</v>
-      </c>
-      <c r="R75" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S75" t="s">
-        <v>42</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
@@ -2270,10 +1044,10 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="C1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2284,7 +1058,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
         <v>3</v>
@@ -2295,52 +1069,219 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
         <v>26</v>
       </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" t="s">
-        <v>43</v>
-      </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="E4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="G4" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="E5" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="G5" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="E6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="25.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F6" t="s">
+      <c r="E1" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G6" t="s">
-        <v>31</v>
+      <c r="C3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="2">
+        <v>3</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="2">
+        <v>4</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="2">
+        <v>4</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="2">
+        <v>4</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="2">
+        <v>4</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -2356,177 +1297,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="2" max="2" width="25.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D3" s="3">
-        <v>1</v>
-      </c>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D4" s="3">
-        <v>1</v>
-      </c>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D5" s="3">
-        <v>3</v>
-      </c>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D6" s="3">
-        <v>4</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D7" s="3">
-        <v>4</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="3">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D8" s="3">
-        <v>4</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="3">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D9" s="3">
-        <v>4</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="E60" sqref="E60"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -2536,19 +1310,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="C1" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="D1" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="E1" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2556,10 +1330,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2567,10 +1341,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -2581,10 +1355,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -2595,7 +1369,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="D5">
         <v>3</v>
@@ -2606,10 +1380,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="D6">
         <v>4</v>
@@ -2619,8 +1393,8 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>45</v>
+      <c r="B7" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="D7">
         <v>5</v>
@@ -2631,10 +1405,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="D8">
         <v>6</v>
@@ -2644,11 +1418,11 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>70</v>
+      <c r="B9" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="C9" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="D9">
         <v>7</v>
@@ -2658,11 +1432,11 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>71</v>
+      <c r="B10" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="C10" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="D10">
         <v>8</v>
@@ -2672,8 +1446,8 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>72</v>
+      <c r="B11" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="D11">
         <v>9</v>
@@ -2684,16 +1458,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="C12" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="D12">
         <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2701,16 +1475,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="D13">
         <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2718,16 +1492,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="D14">
         <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2735,16 +1509,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="D15">
         <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2752,10 +1526,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="C16" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="D16">
         <v>8</v>
@@ -2765,8 +1539,8 @@
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>72</v>
+      <c r="B17" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="D17">
         <v>15</v>
@@ -2777,16 +1551,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="C18" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="D18">
         <v>16</v>
       </c>
       <c r="E18" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -2794,16 +1568,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="D19">
         <v>16</v>
       </c>
       <c r="E19" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -2811,16 +1585,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C20" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="D20">
         <v>16</v>
       </c>
       <c r="E20" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -2828,16 +1602,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="D21">
         <v>16</v>
       </c>
       <c r="E21" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -2845,10 +1619,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="D22">
         <v>8</v>
@@ -2858,8 +1632,8 @@
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>72</v>
+      <c r="B23" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="D23">
         <v>21</v>
@@ -2870,16 +1644,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="C24" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="D24">
         <v>22</v>
       </c>
       <c r="E24" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -2887,16 +1661,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="D25">
         <v>22</v>
       </c>
       <c r="E25" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -2904,16 +1678,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C26" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="D26">
         <v>22</v>
       </c>
       <c r="E26" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -2921,27 +1695,27 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="D27">
         <v>22</v>
       </c>
       <c r="E27" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="6" t="s">
-        <v>9</v>
+      <c r="B28" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="C28" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="D28">
         <v>6</v>
@@ -2951,11 +1725,11 @@
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="5" t="s">
-        <v>70</v>
+      <c r="B29" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="C29" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="D29">
         <v>27</v>
@@ -2965,11 +1739,11 @@
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="6" t="s">
-        <v>71</v>
+      <c r="B30" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="C30" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="D30">
         <v>28</v>
@@ -2979,8 +1753,8 @@
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>72</v>
+      <c r="B31" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="D31">
         <v>29</v>
@@ -2991,16 +1765,16 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="C32" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="D32">
         <v>30</v>
       </c>
       <c r="E32" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -3008,16 +1782,16 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="D33">
         <v>30</v>
       </c>
       <c r="E33" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -3025,16 +1799,16 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C34" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="D34">
         <v>30</v>
       </c>
       <c r="E34" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -3042,16 +1816,16 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="D35">
         <v>30</v>
       </c>
       <c r="E35" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -3059,10 +1833,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="C36" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="D36">
         <v>28</v>
@@ -3072,8 +1846,8 @@
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>72</v>
+      <c r="B37" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="D37">
         <v>35</v>
@@ -3084,16 +1858,16 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="C38" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="D38">
         <v>36</v>
       </c>
       <c r="E38" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -3101,16 +1875,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="D39">
         <v>36</v>
       </c>
       <c r="E39" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -3118,16 +1892,16 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C40" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="D40">
         <v>36</v>
       </c>
       <c r="E40" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -3135,16 +1909,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="D41">
         <v>36</v>
       </c>
       <c r="E41" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -3152,10 +1926,10 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C42" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="D42">
         <v>28</v>
@@ -3165,8 +1939,8 @@
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" s="4" t="s">
-        <v>72</v>
+      <c r="B43" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="D43">
         <v>41</v>
@@ -3177,16 +1951,16 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="C44" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="D44">
         <v>42</v>
       </c>
       <c r="E44" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -3194,16 +1968,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="D45">
         <v>42</v>
       </c>
       <c r="E45" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -3211,16 +1985,16 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C46" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="D46">
         <v>42</v>
       </c>
       <c r="E46" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -3228,16 +2002,16 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="D47">
         <v>42</v>
       </c>
       <c r="E47" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -3245,10 +2019,10 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="C48" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="D48">
         <v>4</v>
@@ -3259,16 +2033,16 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C49" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D49">
         <v>47</v>
       </c>
       <c r="E49" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -3276,16 +2050,16 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C50" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D50">
         <v>47</v>
       </c>
       <c r="E50" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -3293,16 +2067,16 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C51" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D51">
         <v>47</v>
       </c>
       <c r="E51" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -3310,16 +2084,16 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
+        <v>12</v>
+      </c>
+      <c r="C52" t="s">
         <v>17</v>
-      </c>
-      <c r="C52" t="s">
-        <v>25</v>
       </c>
       <c r="D52">
         <v>47</v>
       </c>
       <c r="E52" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -3327,10 +2101,10 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C53" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="D53">
         <v>4</v>
@@ -3341,7 +2115,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="D54">
         <v>52</v>
@@ -3355,7 +2129,7 @@
         <v>1</v>
       </c>
       <c r="C55" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D55">
         <v>53</v>
@@ -3369,7 +2143,7 @@
         <v>2</v>
       </c>
       <c r="C56" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D56">
         <v>53</v>
@@ -3380,7 +2154,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="D57">
         <v>55</v>
@@ -3394,7 +2168,7 @@
         <v>1</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D58">
         <v>56</v>
@@ -3408,7 +2182,7 @@
         <v>2</v>
       </c>
       <c r="C59" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="D59">
         <v>56</v>
@@ -3419,7 +2193,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="D60">
         <v>58</v>
@@ -3433,7 +2207,7 @@
         <v>1</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D61">
         <v>59</v>
@@ -3447,7 +2221,7 @@
         <v>2</v>
       </c>
       <c r="C62" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="D62">
         <v>59</v>
@@ -3458,7 +2232,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="D63">
         <v>61</v>
@@ -3472,13 +2246,13 @@
         <v>1</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D64">
         <v>62</v>
       </c>
       <c r="E64" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -3489,13 +2263,13 @@
         <v>2</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D65">
         <v>62</v>
       </c>
       <c r="E65" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
